--- a/medicine/Enfance/Frank_H._Shaw/Frank_H._Shaw.xlsx
+++ b/medicine/Enfance/Frank_H._Shaw/Frank_H._Shaw.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Frank Hubert Shaw, né dans le comté du Yorkshire en 1878 et mort en 1960[2], est un romancier et nouvelliste britannique, auteur de nombreux ouvrages de littérature populaire et de littérature d'enfance et de jeunesse. Il utilise à l'occasion les pseudonymes Archibald Guthrie, Grenville Hammerton, Frank Hubert ou Frank Cleveland.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Frank Hubert Shaw, né dans le comté du Yorkshire en 1878 et mort en 1960, est un romancier et nouvelliste britannique, auteur de nombreux ouvrages de littérature populaire et de littérature d'enfance et de jeunesse. Il utilise à l'occasion les pseudonymes Archibald Guthrie, Grenville Hammerton, Frank Hubert ou Frank Cleveland.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'engage comme apprenti dans la Royal Navy dès son adolescence. Il sert comme officier pendant la Première Guerre mondiale et atteint le grade de capitaine. Après le conflit, il signe parfois ses œuvres Capitaine Frank H. Shaw.
 Dès 1906, il amorce une carrière d'écrivain, abordant divers genres populaires. Écrivain prolifique, plusieurs de ses nouvelles et courts romans sont des ouvrages parus de littérature d'enfance et de jeunesse parus en plusieurs livraisons dans Chums, un magazine spécialisé pour la jeunesse.
 Frank H. Shaw signe également pour le grand public des romans de guerre, parfois associés à un récit historique aux accents patriotiques, et de nombreuses intrigues d'aventures, policières et d'espionnage, où s'intègrent à l'occasion des thèmes de science-fiction et de fantasy un peu à la manière des œuvres de Jules Verne ou d'Edgar Allan Poe.
-Presque tous ses ouvrages ont pour cadre des ports, des îles ou de lointaines contrées océaniques quand l'action ne se déroulent pas en mer sur de grands vaisseaux. C'est le cas du roman policier Le Paquebot tragique (Atlantic Murder, 1932) où un commandant doit démasquer, à bord de son navire, un meurtrier qui tue ses victimes, pourtant enfermées dans leur cabine, grâce à des « empoisonnements au curare à l'aide de piqûres »[3].
+Presque tous ses ouvrages ont pour cadre des ports, des îles ou de lointaines contrées océaniques quand l'action ne se déroulent pas en mer sur de grands vaisseaux. C'est le cas du roman policier Le Paquebot tragique (Atlantic Murder, 1932) où un commandant doit démasquer, à bord de son navire, un meurtrier qui tue ses victimes, pourtant enfermées dans leur cabine, grâce à des « empoisonnements au curare à l'aide de piqûres ».
 Avant sa mort survenue en 1960, Frank H. Shaw publie deux livres de mémoires : Life Owes Me Nothing (1948) et Seas of Memory (1958).
 </t>
         </is>
@@ -548,8 +562,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-First at the Pole: a Romance of Arctic Adventure (1909)
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>First at the Pole: a Romance of Arctic Adventure (1909)
 A Daughter of the Storm (1909)
 With Jellicoe in the North Sea (1916)
 When Beatty Kept the Seas (1917)
@@ -566,48 +585,314 @@
 White Sails and Spindrift (1946)
 Exultant Danger (1948)
 Splendour of the Seas (1953)
-Under the Red Ensign (1957)
-Nouvelles
-Série The Wonderful Adventures of Captain Smith of the Astonian Navy
-An Astonian Revengs (1906)
+Under the Red Ensign (1957)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Frank_H._Shaw</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Frank_H._Shaw</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Série The Wonderful Adventures of Captain Smith of the Astonian Navy</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>An Astonian Revengs (1906)
 The Maelström (1906)
-The Basilisk (1906)
-Série The Peril of the Motherland
-The Great War with Russia (1908)
+The Basilisk (1906)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Frank_H._Shaw</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Frank_H._Shaw</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Série The Peril of the Motherland</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>The Great War with Russia (1908)
 The Russians Besiege Manchester (1908)
 Manchester Shelled From the Sky (1908)
 Manchester Is Saved (1908)
 The Doom of the Russian Spy (1908)
 The Doom of Birmingham (1908)
 The Battles of York and Sheffield (1908)
-The Capture of London (1908)
-Série Mystery Ship of the Seven Seas
-In the Matter of a Revolution (1920)
+The Capture of London (1908)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Frank_H._Shaw</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Frank_H._Shaw</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Série Mystery Ship of the Seven Seas</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>In the Matter of a Revolution (1920)
 The Wraith’s Bluff (1920)
 The Governor’s Victim (1920)
 Devil’s Island (1920)
 Monterez’s Treasure (1920)
 The Count of Croyola (1920)
-Throw-Knife Henderson (1920)
-Série Highway Adventures Ltd.
-Tried in the Furnace (1925)
+Throw-Knife Henderson (1920)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Frank_H._Shaw</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Frank_H._Shaw</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Série Highway Adventures Ltd.</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Tried in the Furnace (1925)
 Convict No. 7 -77 (1925)
 Motor Bandits (1925)
 Priceless Percy Intervenes (1925)
 The Besieged House (1925)
 Good Samaritans (1925)
 The Sulyat Ghand Again (1925)
-The International Trophy (1925)
-Série Astonishing Daphne Collett
-The Unsuccessful Burglar (1927)
-Brains (1927)
-Série Son o’ the Seven Seas
-Master at Eighteen (1928)
+The International Trophy (1925)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Frank_H._Shaw</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Frank_H._Shaw</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Série Astonishing Daphne Collett</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>The Unsuccessful Burglar (1927)
+Brains (1927)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Frank_H._Shaw</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Frank_H._Shaw</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Série Son o’ the Seven Seas</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Master at Eighteen (1928)
 Barratry Jack (1928)
 The Gun-Runners (1928)
 A Brush with Pirates (1928)
-A Cutting-Out Expedition (1928)
-Autres nouvelles
+A Cutting-Out Expedition (1928)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Frank_H._Shaw</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Frank_H._Shaw</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Autres nouvelles</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 An Atlantic Rescue (1907)
 The Boys of the Marion (1907)
 Fog in the Channel: a Descriptive Tale (1907)
@@ -911,8 +1196,47 @@
 Ancient Stowaway (1948)
 One Having Authority (1951)
 Last Laugh (1952)
-Nouvelles signées Archibald Guthrie
-Série Master Diver
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Frank_H._Shaw</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Frank_H._Shaw</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Nouvelles signées Archibald Guthrie</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Série Master Diver
 The Master Diver (1908)
 The Secret of the San Fernando (1908)
 The Haunted Estuary (1908)
@@ -927,9 +1251,47 @@
 Redskin and Settler (1908)
 The Airship Rivals: A Race for Ten Thousand Sovereigns (1908)
 The Unforeseen Contingency (1910)
-Captain Barney’s Blindness (1927)
-Nouvelles signées Grenville Hammerton
-An Angel (?) Unawares (1907)
+Captain Barney’s Blindness (1927)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Frank_H._Shaw</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Frank_H._Shaw</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Nouvelles signées Grenville Hammerton</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>An Angel (?) Unawares (1907)
 Bread on the Waters (1907)
 Across Russian Snows: A Thrilling Romance of Siberia (1907)
 Two Good Turns and a Third (1908)
@@ -964,9 +1326,47 @@
 Be Prepared! (1925)
 The Vengeance of the Derelict (1926)
 The Thirtieth Piece of Silver (1927)
-Manoel, the Patriot (1928)
-Nouvelles signées Frank Hubert
-A Useless Sacrifice (1906)
+Manoel, the Patriot (1928)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Frank_H._Shaw</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Frank_H._Shaw</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Nouvelles signées Frank Hubert</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>A Useless Sacrifice (1906)
 Lootah and the Gods (1907)
 The Missing President (1907)
 In Search of a Hidden Mine (1908)
@@ -990,9 +1390,43 @@
 Slow Purchase (1925)
 Memory’s Garden (1926)
 Something Hidden (1926)
-Crawford’s Salvation (1927)
-Autres publications
-The Sea and Its Story from Viking Ship to Sumarine (1910)
+Crawford’s Salvation (1927)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Frank_H._Shaw</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Frank_H._Shaw</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Autres publications</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>The Sea and Its Story from Viking Ship to Sumarine (1910)
 Heroes of the Polar Wastes (1928)
 The Last Windjammer (1929)
 Prohibition as I Saw (1930)
@@ -1000,9 +1434,43 @@
 The Merchant Navy at War (1943)
 Odysseys and Oddities (1948)
 Flag of the Seven Seas: the Story of the British Merchant Navy (1953)
-Epic Navals Fights (1955)
-Mémoires
-Life Owes Me Nothing (1948)
+Epic Navals Fights (1955)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Frank_H._Shaw</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Frank_H._Shaw</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Mémoires</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Life Owes Me Nothing (1948)
 Seas of Memory (1958)</t>
         </is>
       </c>
